--- a/biology/Botanique/Algue_d'eau_douce/Algue_d'eau_douce.xlsx
+++ b/biology/Botanique/Algue_d'eau_douce/Algue_d'eau_douce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Algue_d%27eau_douce</t>
+          <t>Algue_d'eau_douce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les algues d'eau douce  sont les algues dont le cycle de vie se déroule dans les eaux douces. Certaines de ces algues supportent de longues périodes d'exondation, c'est-à-dire qu'elles peuvent vivre un certain temps hors de l'eau. Bien moins nombreuses que les algues marines, les algues d'eau douce jouent comme ces dernières un rôle important en tant qu'éléments du phytoplancton (l'une des bases du réseau trophique) et en raison de leur contribution à l'oxygénation de l'eau via la photosynthèse. Ces algues, quand elles sont microscopiques, contribuent à la couleur et à la turbidité de l'eau.
-Quelques espèces sont utilisées pour l'alimentation humaine ou font l'objet de recherches pour la chimie verte et la production d'algocarburants. Certaines espèces profitent de l'eutrophisation générale des milieux, et localement de la salinisation. Dans les « milieux passagers » (qui se réchauffent plus vite au soleil) leur cycle de vie peut être accéléré[1].
+Quelques espèces sont utilisées pour l'alimentation humaine ou font l'objet de recherches pour la chimie verte et la production d'algocarburants. Certaines espèces profitent de l'eutrophisation générale des milieux, et localement de la salinisation. Dans les « milieux passagers » (qui se réchauffent plus vite au soleil) leur cycle de vie peut être accéléré.
 L'étude des algues est la phycologie.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Algue_d%27eau_douce</t>
+          <t>Algue_d'eau_douce</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les algues ne constituent pas un groupe monophylétique[2] mais appartiennent à des groupes phylogénétiques différents[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les algues ne constituent pas un groupe monophylétique mais appartiennent à des groupes phylogénétiques différents,.
 On distingue généralement les algues macroscopiques, fixées ou libres des algues unicellulaires microscopiques qui font partie du phytoplancton.
 Les algues d'eau douce peuvent être :
 des organismes procaryotes : les « algues bleues » ou Cyanobactéries ;
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Algue_d%27eau_douce</t>
+          <t>Algue_d'eau_douce</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,12 +574,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Alimentation humaine
-La spiruline, micro algue bleue, commercialisée sous forme de gélule comme complément particulièrement riche en protéines, acide γ-linolénique et en vitamines.
+          <t>Alimentation humaine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La spiruline, micro algue bleue, commercialisée sous forme de gélule comme complément particulièrement riche en protéines, acide γ-linolénique et en vitamines.
 Les algues intéressent l'industrie alimentaire par leur capacité à filtrer l'eau et à concentrer ses constituants même en quantité infinitésimale. Cette capacité, qui est à la base des phénomènes biologiques, permet en particulier l'alimentation de chaque organisme vivant. Elle se transforme en inconvénient lorsqu'il s'agit de polluants, qui sont alors de plus en plus concentrés tout au long de la chaîne alimentaire : le plancton consommé par des petits poissons, consommés eux-mêmes par des poissons carnivores, puis par les hommes. À chaque niveau la concentration dans les tissus est de l'ordre de 10, ce qui peut rendre la concentration finale importante, et très supérieure aux normes sanitaires. On parle de concentration dans les chaines alimentaires.
-Alimentation animale
-Usages industriels
-Production de biocarburants (algocarburants)</t>
+</t>
         </is>
       </c>
     </row>
